--- a/public/file/format.xlsx
+++ b/public/file/format.xlsx
@@ -32,8 +32,10 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">aktif / non aktif</t>
+          <t xml:space="preserve">1.aktif
+0.non aktif</t>
         </r>
       </text>
     </comment>
@@ -44,8 +46,10 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">aktif / non aktif</t>
+          <t xml:space="preserve">1. aktif
+0. non aktif</t>
         </r>
       </text>
     </comment>
@@ -89,6 +93,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,12 +115,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,14 +200,14 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.04"/>

--- a/public/file/format.xlsx
+++ b/public/file/format.xlsx
@@ -53,12 +53,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0. biasa
+1. jumbo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0. biasa
+1. jumbo</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">nis</t>
   </si>
@@ -79,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">siang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porsi_pagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porsi_siang</t>
   </si>
 </sst>
 </file>
@@ -197,10 +231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,6 +270,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
